--- a/outputs-r202/c__Methanobacteria.xlsx
+++ b/outputs-r202/c__Methanobacteria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG201.fasta</t>
+          <t>RUG031.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -533,7 +533,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG344.fasta</t>
+          <t>RUG076.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -556,7 +556,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG545.fasta</t>
+          <t>RUG092.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -579,7 +579,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG593.fasta</t>
+          <t>RUG186.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -602,7 +602,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG648.fasta</t>
+          <t>RUG201.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -625,21 +625,251 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>RUG236.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG256.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG338.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG344.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG526.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG545.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG593.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG648.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>RUG748.fasta</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG780.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG787.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>

--- a/outputs-r202/c__Methanobacteria.xlsx
+++ b/outputs-r202/c__Methanobacteria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +708,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,6 +731,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +754,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -707,6 +777,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +800,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -743,6 +823,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +846,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -779,6 +869,11 @@
           <t>o__Methanobacteriales</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -793,6 +888,11 @@
         <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>

--- a/outputs-r202/c__Methanobacteria.xlsx
+++ b/outputs-r202/c__Methanobacteria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,17 +463,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>285716.374927806</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
@@ -491,19 +483,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>-50347.13030853675</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
+          <t>o__Methanobacteriales(reject)</t>
         </is>
       </c>
     </row>
@@ -514,17 +503,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>296501.3584019154</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
@@ -537,17 +523,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>24940.4447828519</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
@@ -560,17 +543,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>294066.3969261379</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
@@ -583,17 +563,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+        <v>308236.8111055916</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
@@ -606,19 +583,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+        <v>-74547.32242456335</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
+          <t>o__Methanobacteriales(reject)</t>
         </is>
       </c>
     </row>
@@ -629,17 +603,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
+        <v>166118.2343003266</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
@@ -652,17 +623,14 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
+        <v>282873.4098115551</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
@@ -675,17 +643,14 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
+        <v>319705.5857858557</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
@@ -698,17 +663,14 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
+        <v>229580.9630112328</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
@@ -721,17 +683,14 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>329823.4669816623</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
@@ -744,17 +703,14 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>279222.8302084922</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
@@ -767,17 +723,14 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>136400.7482931591</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
@@ -790,17 +743,14 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+        <v>303175.0149353194</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
@@ -813,17 +763,14 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+        <v>31656.89979797075</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
@@ -836,17 +783,14 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
+        <v>310390.5904991316</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
@@ -859,40 +803,14 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
+        <v>94639.06071850809</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>RUG823.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>

--- a/outputs-r202/c__Methanobacteria.xlsx
+++ b/outputs-r202/c__Methanobacteria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,6 +816,26 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG823.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>220744.9276239328</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-r202/c__Methanobacteria.xlsx
+++ b/outputs-r202/c__Methanobacteria.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,11 +679,11 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG526.fasta</t>
+          <t>RUG492.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>329823.4669816623</v>
+        <v>334569.3878492271</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -699,11 +699,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG545.fasta</t>
+          <t>RUG526.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>279222.8302084922</v>
+        <v>329823.4669816623</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -719,11 +719,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG593.fasta</t>
+          <t>RUG545.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>136400.7482931591</v>
+        <v>279222.8302084922</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -739,11 +739,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG648.fasta</t>
+          <t>RUG593.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>303175.0149353194</v>
+        <v>136400.7482931591</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -759,11 +759,11 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG748.fasta</t>
+          <t>RUG648.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31656.89979797075</v>
+        <v>303175.0149353194</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -779,11 +779,11 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG780.fasta</t>
+          <t>RUG748.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>310390.5904991316</v>
+        <v>31656.89979797075</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -799,11 +799,11 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG787.fasta</t>
+          <t>RUG780.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94639.06071850809</v>
+        <v>310390.5904991316</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -819,18 +819,58 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
+          <t>RUG787.fasta</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>94639.06071850809</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
           <t>RUG823.fasta</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>220744.9276239328</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>o__Methanobacteriales</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG833.fasta</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>308734.7956021985</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>o__Methanobacteriales</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>o__Methanobacteriales</t>
         </is>
